--- a/stockplan.xlsx
+++ b/stockplan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>股票数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,82 @@
   </si>
   <si>
     <t>卖模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入股票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入手数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议买入时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出股票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖入手数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议卖出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板块趋势数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入股票趋势数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入股票推荐助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出股票趋势数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出股票推荐助理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入运行时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出运行时间间隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股票趋势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,9 +369,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="F8:AD44"/>
+  <dimension ref="F8:AN52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -629,478 +708,716 @@
     <col min="10" max="10" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="6:18">
-      <c r="F8" s="1" t="s">
+    <row r="8" spans="6:30">
+      <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
       <c r="J8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="6:18">
-      <c r="F9" s="4"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="L8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="6:30">
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
       <c r="J9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="6:18">
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="6:30">
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
       <c r="J10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="6:18">
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="6"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="6:30">
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
       <c r="J11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="6:18">
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="6:30">
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
       <c r="J12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="6:18">
-      <c r="F13" s="7"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="9"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="6:30">
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="10"/>
       <c r="J13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="6:18">
-      <c r="M14" s="1" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="6:30">
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="6:30">
+      <c r="Q15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="4"/>
+      <c r="V15" t="s">
+        <v>52</v>
+      </c>
+      <c r="X15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" t="s">
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="6:30">
+      <c r="Q16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="7"/>
+      <c r="V16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="7"/>
+      <c r="AD16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="6:35">
+      <c r="L17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="4"/>
+      <c r="P17" t="s">
+        <v>2</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="7"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="6:35">
+      <c r="F18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
+      <c r="P18" t="s">
+        <v>17</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="7"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="6:35">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="7"/>
+      <c r="P19" t="s">
+        <v>18</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="6:35">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="7"/>
+      <c r="P20" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="10"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="7"/>
+    </row>
+    <row r="21" spans="6:35">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="7"/>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="7"/>
+      <c r="AF21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="4"/>
+    </row>
+    <row r="22" spans="6:35">
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="10"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="7"/>
+    </row>
+    <row r="23" spans="6:35">
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="10"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="7"/>
+    </row>
+    <row r="24" spans="6:35">
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="7"/>
+    </row>
+    <row r="25" spans="6:35">
+      <c r="X25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="6:18">
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" t="s">
+      <c r="Y25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="6"/>
+      <c r="AH25" s="6"/>
+      <c r="AI25" s="7"/>
+    </row>
+    <row r="26" spans="6:35">
+      <c r="X26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="6:18">
-      <c r="M16" s="4"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" t="s">
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="6"/>
+      <c r="AH26" s="6"/>
+      <c r="AI26" s="7"/>
+    </row>
+    <row r="27" spans="6:35">
+      <c r="X27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="6:30">
-      <c r="M17" s="4"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="6:30">
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-      <c r="J18" t="s">
-        <v>15</v>
-      </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="6:30">
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="6:30">
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" t="s">
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="6"/>
+      <c r="AH27" s="6"/>
+      <c r="AI27" s="7"/>
+    </row>
+    <row r="28" spans="6:35">
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="10"/>
+    </row>
+    <row r="29" spans="6:35">
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="6:35">
+      <c r="F30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="4"/>
+      <c r="J30" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="7"/>
+    </row>
+    <row r="31" spans="6:35">
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="7"/>
+    </row>
+    <row r="32" spans="6:35">
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="10"/>
+    </row>
+    <row r="33" spans="6:40">
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="6:40">
+      <c r="F34" s="5"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="6:40">
+      <c r="F35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="10"/>
+    </row>
+    <row r="37" spans="6:40">
+      <c r="X37" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="6:40">
+      <c r="X38" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="6:40">
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="7"/>
+    </row>
+    <row r="40" spans="6:40">
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="7"/>
+    </row>
+    <row r="41" spans="6:40">
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="7"/>
+    </row>
+    <row r="42" spans="6:40">
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="8"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="9"/>
+      <c r="AB42" s="10"/>
+    </row>
+    <row r="43" spans="6:40">
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+    </row>
+    <row r="44" spans="6:40">
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+    </row>
+    <row r="46" spans="6:40">
+      <c r="Y46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF46" s="3"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK46" s="3"/>
+      <c r="AL46" s="3"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="6:40">
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" t="s">
+        <v>28</v>
+      </c>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="6"/>
+      <c r="AL47" s="6"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="6:40">
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" t="s">
         <v>18</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6"/>
-      <c r="T20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="3"/>
-      <c r="Z20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="6:30">
-      <c r="F21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="J21" t="s">
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="6"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="25:40">
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="6"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="6"/>
-      <c r="AD21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="6:30">
-      <c r="F22" s="4"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="J22" t="s">
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="25:40">
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="6"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="6"/>
-      <c r="AD22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="6:30">
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="9"/>
-      <c r="J23" t="s">
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="6"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="25:40">
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="9"/>
+      <c r="AA51" s="9"/>
+      <c r="AB51" s="10"/>
+      <c r="AC51" t="s">
         <v>21</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="6"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="6"/>
-      <c r="AD23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="6:30">
-      <c r="M24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" t="s">
-        <v>22</v>
-      </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="6"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="6"/>
-      <c r="AD24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="6:30">
-      <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" t="s">
-        <v>1</v>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="6"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="6"/>
-      <c r="AD25" t="s">
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="9"/>
+      <c r="AG51" s="10"/>
+      <c r="AH51" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="6"/>
+      <c r="AL51" s="6"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="6:30">
-      <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="6"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" t="s">
+    <row r="52" spans="25:40">
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="9"/>
+      <c r="AL52" s="9"/>
+      <c r="AM52" s="10"/>
+      <c r="AN52" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="6:30">
-      <c r="F27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" t="s">
-        <v>10</v>
-      </c>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="9"/>
-    </row>
-    <row r="28" spans="6:30">
-      <c r="F28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-      <c r="J28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="6:30">
-      <c r="F29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-      <c r="J29" t="s">
-        <v>7</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="6:30">
-      <c r="F30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-      <c r="J30" t="s">
-        <v>8</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="6:30">
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-      <c r="J31" t="s">
-        <v>9</v>
-      </c>
-      <c r="M31" s="7"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="9"/>
-    </row>
-    <row r="32" spans="6:30">
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="9"/>
-      <c r="T32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U32" s="2"/>
-      <c r="V32" s="3"/>
-      <c r="W32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="6:23">
-      <c r="T33" s="4"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="6"/>
-      <c r="W33" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="6:23">
-      <c r="T34" s="4"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="6"/>
-      <c r="W34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="6:23">
-      <c r="T35" s="4"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="6"/>
-      <c r="W35" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="6:23">
-      <c r="T36" s="4"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="6"/>
-      <c r="W36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="6:23">
-      <c r="T37" s="7"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="9"/>
-      <c r="W37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="6:23">
-      <c r="F39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="3"/>
-      <c r="J39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="6:23">
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="6:23">
-      <c r="F41" s="4"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="6"/>
-      <c r="J41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="6:23">
-      <c r="F42" s="4"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="6:23">
-      <c r="F43" s="4"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="6:23">
-      <c r="F44" s="7"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M24:Q31"/>
-    <mergeCell ref="Z20:AC26"/>
-    <mergeCell ref="T20:W27"/>
+  <mergeCells count="13">
+    <mergeCell ref="F30:I35"/>
+    <mergeCell ref="L8:O13"/>
+    <mergeCell ref="Y15:AC22"/>
+    <mergeCell ref="AE46:AG51"/>
+    <mergeCell ref="R15:U20"/>
+    <mergeCell ref="L17:O22"/>
+    <mergeCell ref="Y46:AB51"/>
+    <mergeCell ref="Y37:AB42"/>
+    <mergeCell ref="Y25:AC32"/>
+    <mergeCell ref="AJ46:AM52"/>
+    <mergeCell ref="AF21:AI28"/>
     <mergeCell ref="F8:I13"/>
-    <mergeCell ref="F27:I32"/>
-    <mergeCell ref="F39:I44"/>
     <mergeCell ref="F18:I23"/>
-    <mergeCell ref="M14:Q21"/>
-    <mergeCell ref="T32:V37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
